--- a/data/hotels_by_city/Dallas/Dallas_shard_587.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_587.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,291 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r506171133-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>55931</t>
+  </si>
+  <si>
+    <t>244362</t>
+  </si>
+  <si>
+    <t>506171133</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Nice, inexpensive place</t>
+  </si>
+  <si>
+    <t>We had a handicapped room with a small fridge, microwave and nice TV. It was clean, comfortable and inexpensive. It had a walk-in shower, which is what I need. The seat appeared broken so I didn't try to use it. We were thoroughly satisfied with our stay.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r475941204-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>475941204</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Comparatively nice</t>
+  </si>
+  <si>
+    <t>Room has a laminate floor, fridge, microwave, table and two chairs. At check-in, attendant helpfully gave us a more desirable room than was in the reservation. Better than other of the same chain. Fronts on interstate. Consider getting a room away from the interstate.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r469743009-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>469743009</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Poor welcome</t>
+  </si>
+  <si>
+    <t>The owners of this location are not very welcoming..try to accuse us of sneaking in more then two people and said no visitors or they would charge additional $12 that night ...the rooms where clean but thats it ..</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r391125764-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>391125764</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Worst place ever God forbid me to go back</t>
+  </si>
+  <si>
+    <t>There was a Cigarette hole in the sheet, the toilet wasn't working and they expect us to fix it, there flies everywhere, and when I asked for a non-smoking room I got one that smelled like smoke ever time I went in. You have to be desperate to stay here. It was cheap but, totally not worth the money. Just absolutely terrible and the worst motel/hotel I ever been to. Please don't come here unless your desperate. Total garbage and the worst waste of money. Was very very very happy to never come back.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r330420104-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>330420104</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>We stopped here because of the easy access to the interstate and the availability of being able to park a four wheeler with a trailer. The room was small, the bathroom was remodeled and very appealing. The price was very reasonable but when I am sitting there and roaches are crawling around , so much for a good night's sleep!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Greenville, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>We stopped here because of the easy access to the interstate and the availability of being able to park a four wheeler with a trailer. The room was small, the bathroom was remodeled and very appealing. The price was very reasonable but when I am sitting there and roaches are crawling around , so much for a good night's sleep!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r319786247-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>319786247</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Good budget room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are passing through and stopped off to get some rest for the night.  This is a budget motel and a good quality for the price.  The room was clean the water pressure was good and the staff was friendly.  Definitely a good place to get rest on the road.  </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r245169772-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>245169772</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>What a disgusting room</t>
+  </si>
+  <si>
+    <t>The room with two beds was small and cramped. The bathroom was gross. The sink is falling apart. The toilet seat was nasty. Why not spend $5.00 at the walmart up the street to replace the seat? There were stains on the seat that just didn't look very good. All of us wrapped the seat in toilet paper.  I refused to take a shower. I was too uncomfortable. The heater didn't blow hot. My youngest son found hair in his bed that didn't belong to any of us. The TV was a flat screen, but the channels were fuzzy or off color. We will not stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r224195848-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>224195848</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>No more Motel 6 for me</t>
+  </si>
+  <si>
+    <t>Room smelled, AC did not work like it should - room never got cool. Bare minimum in room, yucky. Bed old. Everything old except the tv. Hairs in shower, did I mention smell? If this is what you get at Motel 6, I will never ever stop again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r216049273-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>216049273</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Great stay for the price!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed on a Sunday night and don't have anything bad to stay. The room was clean and the receptionist was very polite. It's not fair to expect a 5 star resort at this price. Pool was a little murky but my kids and I will be staying there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r192038208-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>192038208</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Its an older property that looks a bit run down</t>
+  </si>
+  <si>
+    <t>But, the receptionist was pleasant and efficient. Room 106 faced the Interstate, but oddly we did not hear it, the motel was quiet and we had a good night. The price was reasonable, the room clean and unusually the towels though typically small, were absorbent. Initial feelings about the property were miss placed, it was excellent.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r184206954-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>184206954</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stay here twice a month and the customer service people are friendly. The rooms are clean but are small. The shower is small but useful. There is fast food places and gas. Stations around the corner. It is very quiet at night. But safe. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r178969683-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>178969683</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We stopped at this motel on the way home from our winter place in Texas. The room was well equipped, clean and beds freshly changed. It was a welcome sight after a long day of driving.  Close to the Interstate,  it was relatively quiet and we slept undisturbed.  The early morning shower was very hot and provided a great start to another day of traveling.  Add to it all, a reasonable rate for our one night stay. We have the motel bookmarked for future travels. I would recommend this motel based on its value, cleanliness and the staff's friendliness.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r121048080-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>121048080</t>
+  </si>
+  <si>
+    <t>11/26/2011</t>
+  </si>
+  <si>
+    <t>Ok but would look at other options...</t>
+  </si>
+  <si>
+    <t>While this place was clean and the evening was uneventful, there was a sketchy feel to the place. Located near a highway and not really near anything - the area seemed deserted. The room was clean but very worn with stains. The main issue was that the door was not secure. The door was dented a bit and the safety latch was cracked and loose - as if someone had tried to kick the door open.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r119281019-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>119281019</t>
+  </si>
+  <si>
+    <t>10/13/2011</t>
+  </si>
+  <si>
+    <t>Cheap, but you get what you paid for.</t>
+  </si>
+  <si>
+    <t>Old room with a musty smell. Kind of a creepy atmosphere. Very tiny shower stall in bathroom. The room was very small, hard to walk between the bed and the table.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r115930349-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>115930349</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>We made reservations on line ... Took us longer than we planned from AZ ... They welcomed us, and gave us a clean recently renovated room, comfy bed too! Even our doggie Sara liked it!</t>
   </si>
 </sst>
 </file>
@@ -645,6 +930,925 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_587.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_587.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>quiltlady354</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>John T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r475941204-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>michaelpolley71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r469743009-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Emily G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r391125764-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Jacque G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r330420104-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>We stopped here because of the easy access to the interstate and the availability of being able to park a four wheeler with a trailer. The room was small, the bathroom was remodeled and very appealing. The price was very reasonable but when I am sitting there and roaches are crawling around , so much for a good night's sleep!!More</t>
   </si>
   <si>
+    <t>Cris C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r319786247-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>dawnarae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r245169772-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>The room with two beds was small and cramped. The bathroom was gross. The sink is falling apart. The toilet seat was nasty. Why not spend $5.00 at the walmart up the street to replace the seat? There were stains on the seat that just didn't look very good. All of us wrapped the seat in toilet paper.  I refused to take a shower. I was too uncomfortable. The heater didn't blow hot. My youngest son found hair in his bed that didn't belong to any of us. The TV was a flat screen, but the channels were fuzzy or off color. We will not stay here again.</t>
   </si>
   <si>
+    <t>Coleen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r224195848-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r216049273-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t xml:space="preserve">I stayed on a Sunday night and don't have anything bad to stay. The room was clean and the receptionist was very polite. It's not fair to expect a 5 star resort at this price. Pool was a little murky but my kids and I will be staying there again. </t>
   </si>
   <si>
+    <t>Richard T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r192038208-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>osoksgrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r184206954-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t xml:space="preserve">We stay here twice a month and the customer service people are friendly. The rooms are clean but are small. The shower is small but useful. There is fast food places and gas. Stations around the corner. It is very quiet at night. But safe. </t>
   </si>
   <si>
+    <t>Martin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r178969683-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -381,6 +417,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>BleuNewt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r121048080-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -402,6 +441,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>trekmiss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r119281019-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -415,6 +457,9 @@
   </si>
   <si>
     <t>Old room with a musty smell. Kind of a creepy atmosphere. Very tiny shower stall in bathroom. The room was very small, hard to walk between the bed and the table.</t>
+  </si>
+  <si>
+    <t>DieselBenz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r115930349-Motel_6_Greenville-Greenville_Texas.html</t>
@@ -934,43 +979,47 @@
       <c r="A2" t="n">
         <v>6571</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -984,50 +1033,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6571</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1041,50 +1094,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6571</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169474</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1098,50 +1155,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6571</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>8291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1161,50 +1222,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6571</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169475</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1216,56 +1281,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6571</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>63700</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1279,41 +1348,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6571</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5634</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1342,50 +1415,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6571</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>33250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1405,41 +1482,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6571</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1468,50 +1549,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6571</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>8260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1533,41 +1618,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6571</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169476</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -1596,50 +1685,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6571</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>68509</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1653,50 +1746,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6571</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169477</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1720,41 +1817,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6571</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169478</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -1783,41 +1884,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6571</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169479</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -1846,7 +1951,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_587.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_587.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>quiltlady354</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r606540940-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>55931</t>
+  </si>
+  <si>
+    <t>244362</t>
+  </si>
+  <si>
+    <t>606540940</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>More than I expected!!</t>
+  </si>
+  <si>
+    <t>Motel 6 Greenville is a very clean stay!  I was impressed from the moment I opened the door.  Carpet....Clean.  Bed and sheets....Clean.  Bathroom....Clean.  And what's more... It smelled Clean. The t.v. .... well that's another story but I was very impressed!!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r579950752-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>579950752</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Low, low, low budget.</t>
+  </si>
+  <si>
+    <t>Keep going, the photo has definitely been photo shopped, it is a dump. Can't believe it is a Wyndham, they must have gone downhill. Rude person at front desk, not clean, very small breakfast area, but I wouldn't eat there. Horrible accessibility on the freeway, noisy. Keep going.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Greenville, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Keep going, the photo has definitely been photo shopped, it is a dump. Can't believe it is a Wyndham, they must have gone downhill. Rude person at front desk, not clean, very small breakfast area, but I wouldn't eat there. Horrible accessibility on the freeway, noisy. Keep going.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r551218683-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>551218683</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Stay only if Desperate</t>
+  </si>
+  <si>
+    <t>We've had worse motels but this one was pretty bad.  Not kept up, but cheap.  Fridge in room was so loud (buzzing) that we unplugged it.  Door in bathroom was in sorry shape, paint peeling off.  Furniture in room was beat up and old. Wouldn't stay here again, we'd just keep driving.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r506171133-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
-    <t>55931</t>
-  </si>
-  <si>
-    <t>244362</t>
-  </si>
-  <si>
     <t>506171133</t>
   </si>
   <si>
@@ -180,9 +246,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>John T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r475941204-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -201,12 +264,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>michaelpolley71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r469743009-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -228,7 +285,40 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Emily G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r440842524-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>440842524</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Couldn't Sleep</t>
+  </si>
+  <si>
+    <t>We arrived very tired after driving all day. There was some kind of party going on next door and the door opened and closed all night, causing the wall to shake. Girls were laughing and talking outside.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r399378954-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>399378954</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs updating. </t>
+  </si>
+  <si>
+    <t>Hotel was picked by someone else in my group. The hotel room was not very clean.   The rooms need to be updated.   The carpet is frayed and torn.   The rooms smelled.   The towels are thin and rough.    The vending machines didn't work.  I have no intention of ever staying here again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r391125764-Motel_6_Greenville-Greenville_Texas.html</t>
@@ -249,9 +339,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Jacque G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r330420104-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -279,9 +366,6 @@
     <t>We stopped here because of the easy access to the interstate and the availability of being able to park a four wheeler with a trailer. The room was small, the bathroom was remodeled and very appealing. The price was very reasonable but when I am sitting there and roaches are crawling around , so much for a good night's sleep!!More</t>
   </si>
   <si>
-    <t>Cris C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r319786247-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -300,7 +384,46 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>dawnarae</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r290911002-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>290911002</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Might as well leave the light off.</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel 2 days as we were finalizing moving out of our rental home. I booked the hotel online and added in the section for special request I was traveling with pets. I always use motel 6 because of their pet friendly policy. This motel 6 made a big deal of the pets, even trying to force me to have a room service because I had pets. I speficially requested a room with a tub and got a shower only room. The door lock was busted so if you shut the door you had to have them come open it up. The toilet would not flush. Despite being a nonsmoking room the bedsheets had cig burns in them. The ac barely works and the tv while a flatscreen was still all fuzzy. I will never stay at this place again. Ever. The wifi was extremely slow to boot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel 2 days as we were finalizing moving out of our rental home. I booked the hotel online and added in the section for special request I was traveling with pets. I always use motel 6 because of their pet friendly policy. This motel 6 made a big deal of the pets, even trying to force me to have a room service because I had pets. I speficially requested a room with a tub and got a shower only room. The door lock was busted so if you shut the door you had to have them come open it up. The toilet would not flush. Despite being a nonsmoking room the bedsheets had cig burns in them. The ac barely works and the tv while a flatscreen was still all fuzzy. I will never stay at this place again. Ever. The wifi was extremely slow to boot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r289293538-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>289293538</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Good place to spend the night if you are on a budget</t>
+  </si>
+  <si>
+    <t>This is a typical Motel 6, located on I-30, just 50 miles northeast of Dallas.  I got a good night's sleep without spending a lot of money.  It was easy to get to.  Check in was fast and easy.  I liked how there was a large Quik Trip gas station and store nearby.  A McDonald's was also conveniently located nearby.  For those who like specialty cakes and bakery goods, the Greenville, branch of the Collin Street Bakery is just over on the other side of I-30 from Motel 6.  For people not familiar with the Collin Street Bakery they should stop in and give it a try.  Overall the Motel 6 in Greenville is pretty good for the money, and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This is a typical Motel 6, located on I-30, just 50 miles northeast of Dallas.  I got a good night's sleep without spending a lot of money.  It was easy to get to.  Check in was fast and easy.  I liked how there was a large Quik Trip gas station and store nearby.  A McDonald's was also conveniently located nearby.  For those who like specialty cakes and bakery goods, the Greenville, branch of the Collin Street Bakery is just over on the other side of I-30 from Motel 6.  For people not familiar with the Collin Street Bakery they should stop in and give it a try.  Overall the Motel 6 in Greenville is pretty good for the money, and I would stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r245169772-Motel_6_Greenville-Greenville_Texas.html</t>
@@ -318,9 +441,6 @@
     <t>The room with two beds was small and cramped. The bathroom was gross. The sink is falling apart. The toilet seat was nasty. Why not spend $5.00 at the walmart up the street to replace the seat? There were stains on the seat that just didn't look very good. All of us wrapped the seat in toilet paper.  I refused to take a shower. I was too uncomfortable. The heater didn't blow hot. My youngest son found hair in his bed that didn't belong to any of us. The TV was a flat screen, but the channels were fuzzy or off color. We will not stay here again.</t>
   </si>
   <si>
-    <t>Coleen M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r224195848-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -339,9 +459,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Lisa S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r216049273-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -357,7 +474,37 @@
     <t xml:space="preserve">I stayed on a Sunday night and don't have anything bad to stay. The room was clean and the receptionist was very polite. It's not fair to expect a 5 star resort at this price. Pool was a little murky but my kids and I will be staying there again. </t>
   </si>
   <si>
-    <t>Richard T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r215784486-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>215784486</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Not a repeat experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed on July 1st room had a recent smell of bug spray. Beds were harder than expected and shower pressure was low. No tub just shower so no soaking.  Poor experience at front desk. Little room for trucks and hard to get to if headed west.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r196117330-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>196117330</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>OK but not great, fair price</t>
+  </si>
+  <si>
+    <t>I stayed here while driving a car I bought in Austin, TX home to Hagerstown, MD.  I got a late start and decided to stop but it was 2 am so I was not picky in finding a hotel with a room.  This property is a bit dated but I found the room OK.  All I wanted was a clean bed in a quiet room.  For the price I was not disappointed.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r192038208-Motel_6_Greenville-Greenville_Texas.html</t>
@@ -378,9 +525,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>osoksgrl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r184206954-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -396,9 +540,6 @@
     <t xml:space="preserve">We stay here twice a month and the customer service people are friendly. The rooms are clean but are small. The shower is small but useful. There is fast food places and gas. Stations around the corner. It is very quiet at night. But safe. </t>
   </si>
   <si>
-    <t>Martin C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r178969683-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -417,7 +558,34 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>BleuNewt</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r169384525-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>169384525</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>Checked in at midnight with our 4 corgis. Room clean, staff helpful. Heavy on room freshener but not musty. Shower fine. Would use again. Fridge and microwave. Powerful ac. Motel 6 is the place to go with pets. Others have seperate charges, require a cage or a 2 dog maximum.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r147036035-Motel_6_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>147036035</t>
+  </si>
+  <si>
+    <t>12/08/2012</t>
+  </si>
+  <si>
+    <t>Avoid this hotel</t>
+  </si>
+  <si>
+    <t>Went there on a business trip. The room was filthy, not ventilated at all. Sheets were not changed and Internet did not really work. I couldn't stay. I had to leave and look for another place to stay for the night.Friendly staff.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r121048080-Motel_6_Greenville-Greenville_Texas.html</t>
@@ -438,12 +606,6 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>trekmiss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r119281019-Motel_6_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -457,9 +619,6 @@
   </si>
   <si>
     <t>Old room with a musty smell. Kind of a creepy atmosphere. Very tiny shower stall in bathroom. The room was very small, hard to walk between the bed and the table.</t>
-  </si>
-  <si>
-    <t>DieselBenz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d244362-r115930349-Motel_6_Greenville-Greenville_Texas.html</t>
@@ -979,108 +1138,106 @@
       <c r="A2" t="n">
         <v>6571</v>
       </c>
-      <c r="B2" t="n">
-        <v>169473</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6571</v>
       </c>
-      <c r="B3" t="n">
-        <v>1819</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1091,36 +1248,36 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6571</v>
       </c>
-      <c r="B4" t="n">
-        <v>169474</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -1135,20 +1292,24 @@
         <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1162,114 +1323,100 @@
       <c r="A5" t="n">
         <v>6571</v>
       </c>
-      <c r="B5" t="n">
-        <v>8291</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6571</v>
       </c>
-      <c r="B6" t="n">
-        <v>169475</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1280,61 +1427,53 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6571</v>
       </c>
-      <c r="B7" t="n">
-        <v>63700</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
         <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1348,200 +1487,176 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6571</v>
       </c>
-      <c r="B8" t="n">
-        <v>5634</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6571</v>
       </c>
-      <c r="B9" t="n">
-        <v>33250</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6571</v>
       </c>
-      <c r="B10" t="n">
-        <v>2379</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1549,267 +1664,241 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6571</v>
       </c>
-      <c r="B11" t="n">
-        <v>8260</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6571</v>
       </c>
-      <c r="B12" t="n">
-        <v>169476</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6571</v>
       </c>
-      <c r="B13" t="n">
-        <v>68509</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>132</v>
-      </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6571</v>
       </c>
-      <c r="B14" t="n">
-        <v>169477</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>134</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>139</v>
-      </c>
       <c r="O14" t="s">
-        <v>140</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1817,48 +1906,44 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6571</v>
       </c>
-      <c r="B15" t="n">
-        <v>169478</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s"/>
       <c r="O15" t="s"/>
@@ -1866,17 +1951,17 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1884,66 +1969,62 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6571</v>
       </c>
-      <c r="B16" t="n">
-        <v>169479</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1951,7 +2032,704 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6571</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
